--- a/JupyterNotebooks/AveragedIntensities-SRP/UniformA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/UniformA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -68,6 +80,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -449,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -519,8 +534,11 @@
       <c r="V1" s="1">
         <v>20</v>
       </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -528,67 +546,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -655,8 +676,11 @@
       <c r="V3">
         <v>1</v>
       </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -723,8 +747,11 @@
       <c r="V4">
         <v>1</v>
       </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -791,8 +818,11 @@
       <c r="V5">
         <v>1</v>
       </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -859,8 +889,11 @@
       <c r="V6">
         <v>1</v>
       </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,6 +958,293 @@
         <v>1</v>
       </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>1</v>
       </c>
     </row>
